--- a/analysis/Nowy folder/algorithms.xlsx
+++ b/analysis/Nowy folder/algorithms.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VoiceClassifier\VoiceClassifier\analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VoiceClassifier\VoiceClassifier\analysis\Nowy folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13088" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="13088" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Ranking" sheetId="1" r:id="rId1"/>
     <sheet name="Predictions" sheetId="3" r:id="rId2"/>
     <sheet name="Propability" sheetId="4" r:id="rId3"/>
     <sheet name="Non-zero" sheetId="5" r:id="rId4"/>
+    <sheet name="Components" sheetId="6" r:id="rId5"/>
+    <sheet name="Voices" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="29">
   <si>
     <t>N = 1</t>
   </si>
@@ -105,6 +107,18 @@
   <si>
     <t>FastICA_KNeighborsClassifier
 propablity</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>FastICA_KNeighborsClassifier</t>
+  </si>
+  <si>
+    <t>FactorAnalysis_KNeighborsClassifier</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
 </sst>
 </file>
@@ -368,9 +382,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -397,6 +408,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -8243,6 +8257,3679 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Components!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FastICA_GaussianNB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Components!$B$3:$B$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Components!$C$3:$C$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>9.3679279279300004E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17705945945900001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21385945945900001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26399279279299998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31839279279299998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.332792792793</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38772612612599999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43839279279299997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47359279279299998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55785945945899995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.57706666666700002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.58560000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.624</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.64266666666700001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.67573333333300001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.68906666666700001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.69653333333300005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.72160000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.72426666666700001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.72906666666700004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.73386666666699996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.74399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.73599279279300001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.73706666666700005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.74025945945899996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.74826666666700004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.75946666666700002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.73866666666699998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.76053333333299999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.76265945945900004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.75146666666700002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.76213333333300004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.75252612612600001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.76106666666699996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.76319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.76480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.75625945945899997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.76586666666699998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.74825225225199998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.74398558558600003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.76745225225199998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.76211891891899997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.76798558558600005</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.75569729729699997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.758911711712</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.75465945945900004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.75573333333299997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.75359279279299995</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.73493333333300004</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.74132612612600002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.74719279279299999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.73333333333299999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.73706666666700005</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.73491891891899996</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.741859459459</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.74079279279300003</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.73491891891899996</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.72691891891899996</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.74825945945899996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.73493333333300004</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.73385225225200001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.73226666666700002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.74293333333300005</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.73760000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-869F-4B91-969C-14A307B29F7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Components!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FactorAnalysis_GaussianNB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Components!$B$3:$B$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Components!$D$3:$D$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>0.118313513514</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17652612612599999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21012612612600001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27412612612600001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30772612612599998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34079279279300001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36053333333299997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.42133333333299999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45279999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.46239999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.49440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.53013333333299995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.54933333333300005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.57173333333300003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.57813333333299999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.58506666666700002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.60160000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.61705945945899998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.62933333333300001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.640533333333</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.65385945945900004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.65705945945900002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.65545945945899997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.70025945945900003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.70772612612600005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71305945945899996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.70079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.70613333333299999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.70772612612600005</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.70879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.70666666666699995</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.72533333333299999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.71786666666700005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.73333333333299999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.73973333333299995</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.73973333333299995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.74399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.74560000000000004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.73493333333300004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.74399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.74613333333300003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.75946666666700002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.75306666666699995</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.76533333333300002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.762666666667</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.76319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.76745945945899996</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.76745945945899996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.76585945945900002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.76745945945899996</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.76052612612600001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.76746666666700003</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.76639279279299999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.75519999999999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.76372612612599999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.75945945945899995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.761059459459</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.75733333333300001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.75945945945899995</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.752</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.75625945945899997</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.752</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.755192792793</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-869F-4B91-969C-14A307B29F7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Components!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PCA_GaussianNB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Components!$B$3:$B$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Components!$E$3:$E$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>9.3679279279300004E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.173859459459</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.220259459459</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25065945945899998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30772612612599998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34345945945900003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37065945945899997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.42239279279300002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47412612612600002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.52051891891900004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.54879279279299997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.58719279279299996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.62292612612599996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.64319279279300001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.66132612612599995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.68692612612600001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.69385945945899996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.70132612612599998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.70878558558600002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.71465225225200002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.72318558558599999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.73278558558600004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.73598558558600002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.739185585586</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.747718918919</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.74878558558599995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.75625225225199999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.75678558558599995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.75625225225199999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.75518558558600002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.75625225225199999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.75625225225199999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.76158558558599998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.764252252252</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.76531891891899995</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.76745225225199998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.76905225225200002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.77118558558600003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.77065225225199996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.77278558558599997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77171891891900002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.77118558558600003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.774918918919</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.77918558558600004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.77651891891900005</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.77758558558599999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.77545225225199998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.77705225225200003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.77545225225199998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.77705225225200003</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.77758558558599999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.77758558558599999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.78025225225200001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.78078558558599997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.77971891891900003</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.77971891891900003</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.77971891891900003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.77971891891900003</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.772252252252</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.77278558558599997</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.77171891891900002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.77065225225199996</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.774392792793</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.76799279279300003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-869F-4B91-969C-14A307B29F7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Components!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FastICA_KNeighborsClassifier</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Components!$B$3:$B$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Components!$F$3:$F$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>6.1484684684700003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14345225225200001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.195192792793</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.248526126126</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.311459459459</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37173333333300002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.42559999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4672</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.52746666666700004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.54879999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.60106666666700004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.62026666666700003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.64800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.653866666667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.66826666666699996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.69385945945899996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.70558558558600004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.69920000000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.70132612612599998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.708792792793</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.71519279279299997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.717326126126</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.71039279279300005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.71839279279299995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.71625945945900005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.72105945945899996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.70505945945899995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.71572612612599995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.71412612612600002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.73011891891900005</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.72638558558599997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.72745225225200005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.72158558558599994</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.717326126126</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.71305945945899996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.70292612612600003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.70612612612600001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.70505945945899995</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.700792792793</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.70665945945899999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.70399279279299998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.70239279279300004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.70665945945899999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.69224504504499995</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.68745225225200002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.68479279279299998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.66985225225199996</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.67677117117100005</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.66611171171200001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.67197837837800001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.65810450450500002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.65277837837800001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.64636396396399998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.64210450450500001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.63942342342299996</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.63303783783800005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.64636396396399998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.63036396396399996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.62129009009000002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.61861621621600005</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.60635675675699996</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.59943783783799998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.60209729729700001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-869F-4B91-969C-14A307B29F7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Components!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FactorAnalysis_KNeighborsClassifier</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Components!$B$3:$B$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Components!$G$3:$G$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>7.9279279279299994E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.162126126126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.194126126126</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25759279279300001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29919279279299998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33866666666700002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35306666666699998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.40853333333300001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.44586666666699998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.46293333333300002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.49546666666700001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.51200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.52159999999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.54079999999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.56746666666699996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.56320000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.58560000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.58985945945899998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.58399279279299998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.58559279279300003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.59625945945900005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.61119279279299998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.60372612612599996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.599992792793</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.65066666666700002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.6512</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.65919279279300003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.64213333333300004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.65385945945900004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.64745945945899996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.66239279279300001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.66079279279299996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.663978378378</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.65599279279300005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66079279279299996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.65705945945900002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.66079279279299996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.65224504504500003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.65865945945899995</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.64959279279299997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.638385585586</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.65117117117099999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.65171171171200004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.65224504504500003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.64634954955000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.658111711712</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.63994954955000005</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.65649009009000003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.654356756757</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.64050450450499996</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.609578378378</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.62289729729700005</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.613297297297</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.61650450450500005</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.60531171171200004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.612771171171</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.587704504505</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.59410450450499996</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57489729729700001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.593571171171</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.58394954955</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.58771171171199998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.56796396396399995</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.57491171171199995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-869F-4B91-969C-14A307B29F7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="503804000"/>
+        <c:axId val="503816896"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="503804000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="64"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="503816896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="503816896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="503804000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Voices!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FastICA_GaussianNB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Voices!$B$3:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Voices!$C$3:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66666666666700003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69333333333299996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73333333333299999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75555555555599996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.77333333333300003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.81666666666700005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83555555555600003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.80800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.83393939393899996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.80444444444399998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.82048510048500001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.79998712998699995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.82487687687699995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.81832207207200003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.82039215686300004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.81036036036000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.79999051683300004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.79266666666700003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.78283998284</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.77454545454500001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.775644339992</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.79277777777799996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.76906666666699997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5487-4FBA-9700-467AB7BC032B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Voices!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FactorAnalysis_GaussianNB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Voices!$B$3:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Voices!$D$3:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70666666666699995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75555555555599996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70666666666699995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77866666666700002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.72444444444400002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.79619047619000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79333333333300005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79407407407399999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.81466666666700005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.80121212121200003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.79222222222200001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.79998613998599999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.80570141570099996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.821321321321</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.78915540540499995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.77881293057800005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.76591591591599995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.77262209577999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.75199099099099997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.76761904761900002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.76484848484800005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.757101449275</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.75111111111100004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.70666666666699995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5487-4FBA-9700-467AB7BC032B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Voices!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PCA_GaussianNB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Voices!$B$3:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Voices!$E$3:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77333333333300003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78666666666700003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84444444444400002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.868571428571</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87166666666699999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87703703703699998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85733333333299999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.85696969697000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.85555555555600005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.86049896049899999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.859987129987</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.84976576576600005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.83582207207199999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85018547959699997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.82961961961999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.82314841156899998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.79264864864899998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.798721578722</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.79089271089299995</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.79766549157900002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.79831831831800004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75625225225199999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5487-4FBA-9700-467AB7BC032B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Voices!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FastICA_KNeighborsClassifier</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Voices!$B$3:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Voices!$F$3:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.506666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54666666666700003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68533333333299995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.72444444444400002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.750476190476</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.74666666666699999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.76888888888899998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.77600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.77454545454500001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.76888888888899998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.78864864864899997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.80189189189200005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.82486486486499999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.81579954955</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.82508744038199999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.79331331331300003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.77681365576100003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.75465765765799997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.75618189618200005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.74726453726499997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.76231100665899998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.74888138138100002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.72638558558599997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5487-4FBA-9700-467AB7BC032B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Voices!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FactorAnalysis_KNeighborsClassifier</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Voices!$B$3:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Voices!$G$3:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.493333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.636666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62666666666699999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67333333333300005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.72571428571399998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70833333333299997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.72740740740700005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.72484848484800002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.70888888888900004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.73945945945900005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.76568854568900002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.80793993994000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.75413288288299996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.74819289878100004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.75404404404400005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.72840208629699998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.70663063063099996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.69839553839599999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.70059787059800005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.68347042694899995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.69277027027000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.66079279279299996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5487-4FBA-9700-467AB7BC032B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="650342208"/>
+        <c:axId val="650339712"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="650342208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="25"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="650339712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="3"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="650339712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.9"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="650342208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8324,6 +12011,86 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9911,6 +13678,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -9995,6 +14794,76 @@
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>345281</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>233363</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10298,19 +15167,19 @@
   <sheetData>
     <row r="1" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
     </row>
     <row r="3" spans="2:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="2:12" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
@@ -10928,7 +15797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K68"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
@@ -10943,11 +15812,11 @@
       <c r="B2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
       <c r="J2" s="19"/>
@@ -10955,22 +15824,22 @@
     </row>
     <row r="3" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="1:11" ht="100.9" x14ac:dyDescent="0.45">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="28" t="s">
         <v>20</v>
       </c>
     </row>
@@ -12280,7 +17149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H66"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -12296,22 +17165,22 @@
       <c r="B2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="24" t="s">
         <v>24</v>
       </c>
     </row>
@@ -13810,7 +18679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
@@ -13824,19 +18693,19 @@
       <c r="B2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="26" t="s">
         <v>20</v>
       </c>
     </row>
@@ -13844,19 +18713,19 @@
       <c r="B3" s="12">
         <v>1</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="20">
         <v>1.1589280560699999</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="20">
         <v>1</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="20">
         <v>1</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="20">
         <v>5</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="21">
         <v>5</v>
       </c>
     </row>
@@ -13864,19 +18733,19 @@
       <c r="B4" s="12">
         <v>2</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="20">
         <v>1.04287397433</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="20">
         <v>1.06409004839</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="20">
         <v>1.0832863454699999</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="20">
         <v>4.1851335998300003</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="21">
         <v>4.24580685883</v>
       </c>
     </row>
@@ -13884,19 +18753,19 @@
       <c r="B5" s="12">
         <v>3</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="20">
         <v>1.60881443299</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="20">
         <v>1.9997766322999999</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="20">
         <v>2.0427190721600001</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="20">
         <v>4.1204209621999999</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="21">
         <v>4.1657903780099996</v>
       </c>
     </row>
@@ -13904,19 +18773,19 @@
       <c r="B6" s="12">
         <v>4</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="20">
         <v>2.2456798245599998</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="20">
         <v>2.9630087719299998</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="20">
         <v>2.4529166666700002</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="20">
         <v>3.9270570175400001</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="21">
         <v>4.0151578947399997</v>
       </c>
     </row>
@@ -13924,19 +18793,19 @@
       <c r="B7" s="12">
         <v>5</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="20">
         <v>2.9148756998900001</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="20">
         <v>3.33824860022</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="20">
         <v>2.86908846585</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="20">
         <v>3.8813527435599999</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="21">
         <v>3.9234759238499999</v>
       </c>
     </row>
@@ -13944,19 +18813,19 @@
       <c r="B8" s="12">
         <v>6</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <v>3.41284831846</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="20">
         <v>3.3856966369300001</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="20">
         <v>2.94518416838</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="20">
         <v>3.6978860672599998</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="21">
         <v>3.7773690231099999</v>
       </c>
     </row>
@@ -13964,19 +18833,19 @@
       <c r="B9" s="12">
         <v>7</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <v>3.6959747545599999</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="20">
         <v>3.6301309022899999</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="20">
         <v>3.1505843852300002</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="20">
         <v>3.5547966339400001</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="21">
         <v>3.6739036933100002</v>
       </c>
     </row>
@@ -13984,19 +18853,19 @@
       <c r="B10" s="12">
         <v>8</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="20">
         <v>3.9082895365499999</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="20">
         <v>4.0595938843799999</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="20">
         <v>3.0569851887200001</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="20">
         <v>3.4516674629700002</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="21">
         <v>3.5664787386499999</v>
       </c>
     </row>
@@ -14004,19 +18873,19 @@
       <c r="B11" s="12">
         <v>9</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="20">
         <v>3.8431990232</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="20">
         <v>3.8343003662999999</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="20">
         <v>3.0905641025600001</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="20">
         <v>3.36215384615</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="21">
         <v>3.5512673992699999</v>
       </c>
     </row>
@@ -14024,19 +18893,19 @@
       <c r="B12" s="12">
         <v>10</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="20">
         <v>3.9120299625500001</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="20">
         <v>3.9693832709099999</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="20">
         <v>3.1760249687900002</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="20">
         <v>3.20861423221</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="21">
         <v>3.4111860174799999</v>
       </c>
     </row>
@@ -14044,19 +18913,19 @@
       <c r="B13" s="12">
         <v>11</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="20">
         <v>4.1025383043900003</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="20">
         <v>4.2117926455600001</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="20">
         <v>3.2764300306399998</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="20">
         <v>3.0904085801800001</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="21">
         <v>3.30659346272</v>
       </c>
     </row>
@@ -14064,19 +18933,19 @@
       <c r="B14" s="12">
         <v>12</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="20">
         <v>4.3142267502599996</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="20">
         <v>4.3532183908000004</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="20">
         <v>3.50639498433</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="20">
         <v>3.0154649947799999</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="21">
         <v>3.21231452456</v>
       </c>
     </row>
@@ -14084,19 +18953,19 @@
       <c r="B15" s="12">
         <v>13</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="20">
         <v>4.3756802993899999</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="20">
         <v>4.3278695536000003</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="20">
         <v>3.4993744988</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="20">
         <v>2.9755680299399998</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="21">
         <v>3.21054263566</v>
       </c>
     </row>
@@ -14104,19 +18973,19 @@
       <c r="B16" s="12">
         <v>14</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="20">
         <v>4.5279835841300002</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="20">
         <v>4.5465663474699998</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="20">
         <v>3.4921422708600001</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="20">
         <v>2.9315348837199999</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="21">
         <v>3.1668454172399998</v>
       </c>
     </row>
@@ -14124,19 +18993,19 @@
       <c r="B17" s="12">
         <v>15</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="20">
         <v>4.3379607843099999</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="20">
         <v>4.64334453782</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="20">
         <v>3.5732436974800001</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="20">
         <v>2.8681792717099999</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="21">
         <v>3.17685154062</v>
       </c>
     </row>
@@ -14144,19 +19013,19 @@
       <c r="B18" s="12">
         <v>16</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="20">
         <v>4.5804819277100002</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="20">
         <v>4.7443201376899999</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="20">
         <v>3.6262822719400001</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="20">
         <v>2.834205393</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="21">
         <v>3.0189443488199998</v>
       </c>
     </row>
@@ -14164,19 +19033,19 @@
       <c r="B19" s="12">
         <v>17</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="20">
         <v>4.0549397590399998</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="20">
         <v>4.7258125183699997</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="20">
         <v>3.5831854246299999</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="20">
         <v>2.8100440787499998</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="21">
         <v>3.0404172788700001</v>
       </c>
     </row>
@@ -14184,19 +19053,19 @@
       <c r="B20" s="12">
         <v>18</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="20">
         <v>4.33463414634</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="20">
         <v>4.6083047274900002</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="20">
         <v>3.5658777476700001</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="20">
         <v>2.75404396266</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="21">
         <v>2.9330021078000001</v>
       </c>
     </row>
@@ -14204,19 +19073,19 @@
       <c r="B21" s="12">
         <v>19</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="20">
         <v>4.3925925925899998</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="20">
         <v>4.6923518518499998</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="20">
         <v>3.5703950617300002</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="20">
         <v>2.7144444444400002</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="21">
         <v>2.9203765432100002</v>
       </c>
     </row>
@@ -14224,19 +19093,19 @@
       <c r="B22" s="12">
         <v>20</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="20">
         <v>4.3475000000000001</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="20">
         <v>4.6755126582299997</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="20">
         <v>3.5305253164599999</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="20">
         <v>2.6913924050600002</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="21">
         <v>2.8899367088600001</v>
       </c>
     </row>
@@ -14244,19 +19113,19 @@
       <c r="B23" s="12">
         <v>21</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="20">
         <v>4.3230379746800001</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="20">
         <v>4.88713404739</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="20">
         <v>3.52103862382</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="20">
         <v>2.6682440766000002</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="21">
         <v>2.9594092826999998</v>
       </c>
     </row>
@@ -14264,19 +19133,19 @@
       <c r="B24" s="12">
         <v>22</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="20">
         <v>4.2789943389899996</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="20">
         <v>4.6513153513200001</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="20">
         <v>3.5435964036000001</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="20">
         <v>2.6085714285699999</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G24" s="21">
         <v>2.8157509157499998</v>
       </c>
     </row>
@@ -14284,19 +19153,19 @@
       <c r="B25" s="12">
         <v>23</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="20">
         <v>4.4914490772400004</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="20">
         <v>4.5948530417000004</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="20">
         <v>3.5381886534500002</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="20">
         <v>2.57227614491</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G25" s="21">
         <v>2.8132330827100001</v>
       </c>
     </row>
@@ -14304,19 +19173,19 @@
       <c r="B26" s="12">
         <v>24</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="20">
         <v>4.4831719298200001</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="20">
         <v>4.7479228070200001</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="20">
         <v>3.60790877193</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="20">
         <v>2.5718456140399999</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G26" s="21">
         <v>2.84244210526</v>
       </c>
     </row>
@@ -14324,19 +19193,19 @@
       <c r="B27" s="12">
         <v>25</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="20">
         <v>4.3024504504500003</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="20">
         <v>4.8891171171199996</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="20">
         <v>3.5754882882899999</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="20">
         <v>2.5362450450499998</v>
       </c>
-      <c r="G27" s="22">
+      <c r="G27" s="21">
         <v>2.8659387387400002</v>
       </c>
     </row>
@@ -14344,19 +19213,19 @@
       <c r="B28" s="12">
         <v>26</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="20">
         <v>4.2135579415000004</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="20">
         <v>4.66166604961</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="20">
         <v>3.55569048501</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="20">
         <v>2.4975194372499998</v>
       </c>
-      <c r="G28" s="22">
+      <c r="G28" s="21">
         <v>2.7559940762699999</v>
       </c>
     </row>
@@ -14364,19 +19233,19 @@
       <c r="B29" s="12">
         <v>27</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="20">
         <v>4.3496194824999996</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="20">
         <v>4.40332572298</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="20">
         <v>3.54248858447</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="20">
         <v>2.4846270928499998</v>
       </c>
-      <c r="G29" s="22">
+      <c r="G29" s="21">
         <v>2.67143074581</v>
       </c>
     </row>
@@ -14384,19 +19253,19 @@
       <c r="B30" s="12">
         <v>28</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="20">
         <v>4.3050391236300003</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="20">
         <v>4.5828247261300001</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="20">
         <v>3.58335680751</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="20">
         <v>2.4619092331800001</v>
       </c>
-      <c r="G30" s="22">
+      <c r="G30" s="21">
         <v>2.69917840376</v>
       </c>
     </row>
@@ -14404,19 +19273,19 @@
       <c r="B31" s="12">
         <v>29</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="20">
         <v>4.3847887323899997</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="20">
         <v>4.52960965795</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="20">
         <v>3.5605794768600001</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="20">
         <v>2.4080563380300002</v>
       </c>
-      <c r="G31" s="22">
+      <c r="G31" s="21">
         <v>2.7033400402400001</v>
       </c>
     </row>
@@ -14424,19 +19293,19 @@
       <c r="B32" s="12">
         <v>30</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="20">
         <v>4.1931511387200002</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="20">
         <v>4.5297722567300003</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="20">
         <v>3.5594534161500002</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="20">
         <v>2.4356024844699999</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G32" s="21">
         <v>2.6688364389200001</v>
       </c>
     </row>
@@ -14444,19 +19313,19 @@
       <c r="B33" s="12">
         <v>31</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="20">
         <v>4.3107416879800002</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="20">
         <v>4.6649701619800004</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="20">
         <v>3.5490025575400002</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="20">
         <v>2.4245183290700001</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G33" s="21">
         <v>2.68023017903</v>
       </c>
     </row>
@@ -14464,19 +19333,19 @@
       <c r="B34" s="12">
         <v>32</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="20">
         <v>4.3364969271299998</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="20">
         <v>4.6571027216900003</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="20">
         <v>3.6058999121999999</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F34" s="20">
         <v>2.4366637401200002</v>
       </c>
-      <c r="G34" s="22">
+      <c r="G34" s="21">
         <v>2.71561018437</v>
       </c>
     </row>
@@ -14484,19 +19353,19 @@
       <c r="B35" s="12">
         <v>33</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="20">
         <v>4.2949344188199996</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="20">
         <v>4.5486928991399997</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="20">
         <v>3.58689280868</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F35" s="20">
         <v>2.43484396201</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="21">
         <v>2.6808955223900002</v>
       </c>
     </row>
@@ -14504,19 +19373,19 @@
       <c r="B36" s="12">
         <v>34</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="20">
         <v>4.2885314685299996</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="20">
         <v>4.6206433566399996</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="20">
         <v>3.5854731934699999</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="20">
         <v>2.4189930069900001</v>
       </c>
-      <c r="G36" s="22">
+      <c r="G36" s="21">
         <v>2.6614545454499998</v>
       </c>
     </row>
@@ -14524,19 +19393,19 @@
       <c r="B37" s="12">
         <v>35</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="20">
         <v>4.3249423076899998</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D37" s="20">
         <v>4.7378557692300003</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" s="20">
         <v>3.5778653846199999</v>
       </c>
-      <c r="F37" s="21">
+      <c r="F37" s="20">
         <v>2.4069326923099998</v>
       </c>
-      <c r="G37" s="22">
+      <c r="G37" s="21">
         <v>2.6501923076899998</v>
       </c>
     </row>
@@ -14544,19 +19413,19 @@
       <c r="B38" s="12">
         <v>36</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="20">
         <v>4.2168948412700002</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38" s="20">
         <v>4.6581646825399998</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38" s="20">
         <v>3.5912698412699999</v>
       </c>
-      <c r="F38" s="21">
+      <c r="F38" s="20">
         <v>2.4058134920600001</v>
       </c>
-      <c r="G38" s="22">
+      <c r="G38" s="21">
         <v>2.6164880952399998</v>
       </c>
     </row>
@@ -14564,19 +19433,19 @@
       <c r="B39" s="12">
         <v>37</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="20">
         <v>4.3016180235499997</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="20">
         <v>4.59938556068</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="20">
         <v>3.6508141320999998</v>
       </c>
-      <c r="F39" s="21">
+      <c r="F39" s="20">
         <v>2.38818228367</v>
       </c>
-      <c r="G39" s="22">
+      <c r="G39" s="21">
         <v>2.5818330773199998</v>
       </c>
     </row>
@@ -14584,19 +19453,19 @@
       <c r="B40" s="12">
         <v>38</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40" s="20">
         <v>4.3051718667400003</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40" s="20">
         <v>4.6632681121099999</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E40" s="20">
         <v>3.6129349550500001</v>
       </c>
-      <c r="F40" s="21">
+      <c r="F40" s="20">
         <v>2.3492860920099998</v>
       </c>
-      <c r="G40" s="22">
+      <c r="G40" s="21">
         <v>2.57314648334</v>
       </c>
     </row>
@@ -14604,19 +19473,19 @@
       <c r="B41" s="12">
         <v>39</v>
       </c>
-      <c r="C41" s="21">
+      <c r="C41" s="20">
         <v>4.30166120219</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41" s="20">
         <v>4.5069508196700001</v>
       </c>
-      <c r="E41" s="21">
+      <c r="E41" s="20">
         <v>3.63873224044</v>
       </c>
-      <c r="F41" s="21">
+      <c r="F41" s="20">
         <v>2.3491038251399998</v>
       </c>
-      <c r="G41" s="22">
+      <c r="G41" s="21">
         <v>2.5628961748600001</v>
       </c>
     </row>
@@ -14624,19 +19493,19 @@
       <c r="B42" s="12">
         <v>40</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="20">
         <v>4.2720225988699996</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D42" s="20">
         <v>4.6580451977399999</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E42" s="20">
         <v>3.6380338983099998</v>
       </c>
-      <c r="F42" s="21">
+      <c r="F42" s="20">
         <v>2.3369039547999999</v>
       </c>
-      <c r="G42" s="22">
+      <c r="G42" s="21">
         <v>2.5762259887000001</v>
       </c>
     </row>
@@ -14644,19 +19513,19 @@
       <c r="B43" s="12">
         <v>41</v>
       </c>
-      <c r="C43" s="21">
+      <c r="C43" s="20">
         <v>4.1790064289900002</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D43" s="20">
         <v>4.5302045587400004</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E43" s="20">
         <v>3.5932554061999999</v>
       </c>
-      <c r="F43" s="21">
+      <c r="F43" s="20">
         <v>2.3277147866700001</v>
       </c>
-      <c r="G43" s="22">
+      <c r="G43" s="21">
         <v>2.5277264757500002</v>
       </c>
     </row>
@@ -14664,19 +19533,19 @@
       <c r="B44" s="12">
         <v>42</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C44" s="20">
         <v>4.3324258923199999</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D44" s="20">
         <v>4.6683000605</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E44" s="20">
         <v>3.5648517846300001</v>
       </c>
-      <c r="F44" s="21">
+      <c r="F44" s="20">
         <v>2.3105747126399998</v>
       </c>
-      <c r="G44" s="22">
+      <c r="G44" s="21">
         <v>2.5644041137300002</v>
       </c>
     </row>
@@ -14684,19 +19553,19 @@
       <c r="B45" s="12">
         <v>43</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="20">
         <v>4.3817669172900002</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D45" s="20">
         <v>4.6940601503800004</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E45" s="20">
         <v>3.6063784461199999</v>
       </c>
-      <c r="F45" s="21">
+      <c r="F45" s="20">
         <v>2.2935213032599999</v>
       </c>
-      <c r="G45" s="22">
+      <c r="G45" s="21">
         <v>2.5496616541399999</v>
       </c>
     </row>
@@ -14704,19 +19573,19 @@
       <c r="B46" s="12">
         <v>44</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C46" s="20">
         <v>4.3100259740300002</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D46" s="20">
         <v>4.7257532467500001</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E46" s="20">
         <v>3.5765064935100002</v>
       </c>
-      <c r="F46" s="21">
+      <c r="F46" s="20">
         <v>2.2794545454500001</v>
       </c>
-      <c r="G46" s="22">
+      <c r="G46" s="21">
         <v>2.5381298701300001</v>
       </c>
     </row>
@@ -14724,19 +19593,19 @@
       <c r="B47" s="12">
         <v>45</v>
       </c>
-      <c r="C47" s="21">
+      <c r="C47" s="20">
         <v>4.2400134680099999</v>
       </c>
-      <c r="D47" s="21">
+      <c r="D47" s="20">
         <v>4.5491313131300002</v>
       </c>
-      <c r="E47" s="21">
+      <c r="E47" s="20">
         <v>3.5928080808099998</v>
       </c>
-      <c r="F47" s="21">
+      <c r="F47" s="20">
         <v>2.2612929292900001</v>
       </c>
-      <c r="G47" s="22">
+      <c r="G47" s="21">
         <v>2.4925925925899999</v>
       </c>
     </row>
@@ -14744,19 +19613,19 @@
       <c r="B48" s="12">
         <v>46</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C48" s="20">
         <v>4.1918798043300001</v>
       </c>
-      <c r="D48" s="21">
+      <c r="D48" s="20">
         <v>4.6504122990900001</v>
       </c>
-      <c r="E48" s="21">
+      <c r="E48" s="20">
         <v>3.5615793151599999</v>
       </c>
-      <c r="F48" s="21">
+      <c r="F48" s="20">
         <v>2.2557651991599998</v>
       </c>
-      <c r="G48" s="22">
+      <c r="G48" s="21">
         <v>2.4602375960899998</v>
       </c>
     </row>
@@ -14764,19 +19633,19 @@
       <c r="B49" s="12">
         <v>47</v>
       </c>
-      <c r="C49" s="21">
+      <c r="C49" s="20">
         <v>4.3841944847600001</v>
       </c>
-      <c r="D49" s="21">
+      <c r="D49" s="20">
         <v>4.6672278664700002</v>
       </c>
-      <c r="E49" s="21">
+      <c r="E49" s="20">
         <v>3.6008708272900001</v>
       </c>
-      <c r="F49" s="21">
+      <c r="F49" s="20">
         <v>2.2342089985500002</v>
       </c>
-      <c r="G49" s="22">
+      <c r="G49" s="21">
         <v>2.46220609579</v>
       </c>
     </row>
@@ -14784,19 +19653,19 @@
       <c r="B50" s="12">
         <v>48</v>
       </c>
-      <c r="C50" s="21">
+      <c r="C50" s="20">
         <v>4.3385369532400002</v>
       </c>
-      <c r="D50" s="21">
+      <c r="D50" s="20">
         <v>4.6423981900499998</v>
       </c>
-      <c r="E50" s="21">
+      <c r="E50" s="20">
         <v>3.5793212669700001</v>
       </c>
-      <c r="F50" s="21">
+      <c r="F50" s="20">
         <v>2.2209351432900002</v>
       </c>
-      <c r="G50" s="22">
+      <c r="G50" s="21">
         <v>2.4418099547500001</v>
       </c>
     </row>
@@ -14804,19 +19673,19 @@
       <c r="B51" s="12">
         <v>49</v>
       </c>
-      <c r="C51" s="21">
+      <c r="C51" s="20">
         <v>4.28949019608</v>
       </c>
-      <c r="D51" s="21">
+      <c r="D51" s="20">
         <v>4.7067921568599997</v>
       </c>
-      <c r="E51" s="21">
+      <c r="E51" s="20">
         <v>3.5436549019600001</v>
       </c>
-      <c r="F51" s="21">
+      <c r="F51" s="20">
         <v>2.22216470588</v>
       </c>
-      <c r="G51" s="22">
+      <c r="G51" s="21">
         <v>2.4528313725499999</v>
       </c>
     </row>
@@ -14824,19 +19693,19 @@
       <c r="B52" s="12">
         <v>50</v>
       </c>
-      <c r="C52" s="21">
+      <c r="C52" s="20">
         <v>4.2760163265299997</v>
       </c>
-      <c r="D52" s="21">
+      <c r="D52" s="20">
         <v>4.5400653061199998</v>
       </c>
-      <c r="E52" s="21">
+      <c r="E52" s="20">
         <v>3.5241142857100001</v>
       </c>
-      <c r="F52" s="21">
+      <c r="F52" s="20">
         <v>2.1977959183700002</v>
       </c>
-      <c r="G52" s="22">
+      <c r="G52" s="21">
         <v>2.43224489796</v>
       </c>
     </row>
@@ -14844,19 +19713,19 @@
       <c r="B53" s="12">
         <v>51</v>
       </c>
-      <c r="C53" s="21">
+      <c r="C53" s="20">
         <v>4.2686224489800004</v>
       </c>
-      <c r="D53" s="21">
+      <c r="D53" s="20">
         <v>4.66455782313</v>
       </c>
-      <c r="E53" s="21">
+      <c r="E53" s="20">
         <v>3.49482993197</v>
       </c>
-      <c r="F53" s="21">
+      <c r="F53" s="20">
         <v>2.18794217687</v>
       </c>
-      <c r="G53" s="22">
+      <c r="G53" s="21">
         <v>2.4149489795900001</v>
       </c>
     </row>
@@ -14864,19 +19733,19 @@
       <c r="B54" s="12">
         <v>52</v>
       </c>
-      <c r="C54" s="21">
+      <c r="C54" s="20">
         <v>4.2726063829800003</v>
       </c>
-      <c r="D54" s="21">
+      <c r="D54" s="20">
         <v>4.7284574468100002</v>
       </c>
-      <c r="E54" s="21">
+      <c r="E54" s="20">
         <v>3.4942730496499999</v>
       </c>
-      <c r="F54" s="21">
+      <c r="F54" s="20">
         <v>2.1843439716300002</v>
       </c>
-      <c r="G54" s="22">
+      <c r="G54" s="21">
         <v>2.4319503546100001</v>
       </c>
     </row>
@@ -14884,19 +19753,19 @@
       <c r="B55" s="12">
         <v>53</v>
       </c>
-      <c r="C55" s="21">
+      <c r="C55" s="20">
         <v>4.23831637373</v>
       </c>
-      <c r="D55" s="21">
+      <c r="D55" s="20">
         <v>4.5830712303399999</v>
       </c>
-      <c r="E55" s="21">
+      <c r="E55" s="20">
         <v>3.4920074005599999</v>
       </c>
-      <c r="F55" s="21">
+      <c r="F55" s="20">
         <v>2.1695652173900002</v>
       </c>
-      <c r="G55" s="22">
+      <c r="G55" s="21">
         <v>2.41047178538</v>
       </c>
     </row>
@@ -14904,19 +19773,19 @@
       <c r="B56" s="12">
         <v>54</v>
       </c>
-      <c r="C56" s="21">
+      <c r="C56" s="20">
         <v>4.1713236714999997</v>
       </c>
-      <c r="D56" s="21">
+      <c r="D56" s="20">
         <v>4.6113816425099996</v>
       </c>
-      <c r="E56" s="21">
+      <c r="E56" s="20">
         <v>3.5131014492800001</v>
       </c>
-      <c r="F56" s="21">
+      <c r="F56" s="20">
         <v>2.1566763285000001</v>
       </c>
-      <c r="G56" s="22">
+      <c r="G56" s="21">
         <v>2.4124444444400002</v>
       </c>
     </row>
@@ -14924,19 +19793,19 @@
       <c r="B57" s="12">
         <v>55</v>
       </c>
-      <c r="C57" s="21">
+      <c r="C57" s="20">
         <v>4.2934747474700004</v>
       </c>
-      <c r="D57" s="21">
+      <c r="D57" s="20">
         <v>4.4801212121200003</v>
       </c>
-      <c r="E57" s="21">
+      <c r="E57" s="20">
         <v>3.52894949495</v>
       </c>
-      <c r="F57" s="21">
+      <c r="F57" s="20">
         <v>2.1450505050499999</v>
       </c>
-      <c r="G57" s="22">
+      <c r="G57" s="21">
         <v>2.3896565656600002</v>
       </c>
     </row>
@@ -14944,19 +19813,19 @@
       <c r="B58" s="12">
         <v>56</v>
       </c>
-      <c r="C58" s="21">
+      <c r="C58" s="20">
         <v>4.1119238900599999</v>
       </c>
-      <c r="D58" s="21">
+      <c r="D58" s="20">
         <v>4.5455813953500002</v>
       </c>
-      <c r="E58" s="21">
+      <c r="E58" s="20">
         <v>3.49919661734</v>
       </c>
-      <c r="F58" s="21">
+      <c r="F58" s="20">
         <v>2.1292177589899999</v>
       </c>
-      <c r="G58" s="22">
+      <c r="G58" s="21">
         <v>2.3656448203</v>
       </c>
     </row>
@@ -14964,19 +19833,19 @@
       <c r="B59" s="12">
         <v>57</v>
       </c>
-      <c r="C59" s="21">
+      <c r="C59" s="20">
         <v>4.1284606866000004</v>
       </c>
-      <c r="D59" s="21">
+      <c r="D59" s="20">
         <v>4.5396013288999999</v>
       </c>
-      <c r="E59" s="21">
+      <c r="E59" s="20">
         <v>3.4828792912500002</v>
       </c>
-      <c r="F59" s="21">
+      <c r="F59" s="20">
         <v>2.1266666666699998</v>
       </c>
-      <c r="G59" s="22">
+      <c r="G59" s="21">
         <v>2.36677740864</v>
       </c>
     </row>
@@ -14984,19 +19853,19 @@
       <c r="B60" s="12">
         <v>58</v>
       </c>
-      <c r="C60" s="21">
+      <c r="C60" s="20">
         <v>4.0981649245099998</v>
       </c>
-      <c r="D60" s="21">
+      <c r="D60" s="20">
         <v>4.6010452961699997</v>
       </c>
-      <c r="E60" s="21">
+      <c r="E60" s="20">
         <v>3.4943554006999999</v>
       </c>
-      <c r="F60" s="21">
+      <c r="F60" s="20">
         <v>2.11828106852</v>
       </c>
-      <c r="G60" s="22">
+      <c r="G60" s="21">
         <v>2.3611382113800001</v>
       </c>
     </row>
@@ -15004,19 +19873,19 @@
       <c r="B61" s="12">
         <v>59</v>
       </c>
-      <c r="C61" s="21">
+      <c r="C61" s="20">
         <v>4.1582195121999996</v>
       </c>
-      <c r="D61" s="21">
+      <c r="D61" s="20">
         <v>4.5425609756099998</v>
       </c>
-      <c r="E61" s="21">
+      <c r="E61" s="20">
         <v>3.5132439024400002</v>
       </c>
-      <c r="F61" s="21">
+      <c r="F61" s="20">
         <v>2.1211707317099999</v>
       </c>
-      <c r="G61" s="22">
+      <c r="G61" s="21">
         <v>2.3680487804900001</v>
       </c>
     </row>
@@ -15024,19 +19893,19 @@
       <c r="B62" s="12">
         <v>60</v>
       </c>
-      <c r="C62" s="21">
+      <c r="C62" s="20">
         <v>4.0411025641</v>
       </c>
-      <c r="D62" s="21">
+      <c r="D62" s="20">
         <v>4.5061538461500001</v>
       </c>
-      <c r="E62" s="21">
+      <c r="E62" s="20">
         <v>3.5161025641000001</v>
       </c>
-      <c r="F62" s="21">
+      <c r="F62" s="20">
         <v>2.1152307692300001</v>
       </c>
-      <c r="G62" s="22">
+      <c r="G62" s="21">
         <v>2.3432307692299998</v>
       </c>
     </row>
@@ -15044,19 +19913,19 @@
       <c r="B63" s="12">
         <v>61</v>
       </c>
-      <c r="C63" s="21">
+      <c r="C63" s="20">
         <v>4.0391093117399999</v>
       </c>
-      <c r="D63" s="21">
+      <c r="D63" s="20">
         <v>4.6729554655900003</v>
       </c>
-      <c r="E63" s="21">
+      <c r="E63" s="20">
         <v>3.4739541160599998</v>
       </c>
-      <c r="F63" s="21">
+      <c r="F63" s="20">
         <v>2.1017543859600001</v>
       </c>
-      <c r="G63" s="22">
+      <c r="G63" s="21">
         <v>2.3654520917699999</v>
       </c>
     </row>
@@ -15064,19 +19933,19 @@
       <c r="B64" s="12">
         <v>62</v>
       </c>
-      <c r="C64" s="21">
+      <c r="C64" s="20">
         <v>3.9863157894699999</v>
       </c>
-      <c r="D64" s="21">
+      <c r="D64" s="20">
         <v>4.5043812233300002</v>
       </c>
-      <c r="E64" s="21">
+      <c r="E64" s="20">
         <v>3.5054338549100001</v>
       </c>
-      <c r="F64" s="21">
+      <c r="F64" s="20">
         <v>2.1054907539099998</v>
       </c>
-      <c r="G64" s="22">
+      <c r="G64" s="21">
         <v>2.3202844950200001</v>
       </c>
     </row>
@@ -15084,19 +19953,19 @@
       <c r="B65" s="12">
         <v>63</v>
       </c>
-      <c r="C65" s="21">
+      <c r="C65" s="20">
         <v>4.0812012011999999</v>
       </c>
-      <c r="D65" s="21">
+      <c r="D65" s="20">
         <v>4.5698498498499998</v>
       </c>
-      <c r="E65" s="21">
+      <c r="E65" s="20">
         <v>3.4984984985000001</v>
       </c>
-      <c r="F65" s="21">
+      <c r="F65" s="20">
         <v>2.10618618619</v>
       </c>
-      <c r="G65" s="22">
+      <c r="G65" s="21">
         <v>2.3159759759799998</v>
       </c>
     </row>
@@ -15104,19 +19973,19 @@
       <c r="B66" s="15">
         <v>64</v>
       </c>
-      <c r="C66" s="23">
+      <c r="C66" s="22">
         <v>4.0580634920599996</v>
       </c>
-      <c r="D66" s="23">
+      <c r="D66" s="22">
         <v>4.4579047619000001</v>
       </c>
-      <c r="E66" s="23">
+      <c r="E66" s="22">
         <v>3.4367936507899999</v>
       </c>
-      <c r="F66" s="23">
+      <c r="F66" s="22">
         <v>2.0724761904800002</v>
       </c>
-      <c r="G66" s="24">
+      <c r="G66" s="23">
         <v>2.3159047619000002</v>
       </c>
     </row>
@@ -15136,4 +20005,1856 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>9.3679279279300004E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.118313513514</v>
+      </c>
+      <c r="E3">
+        <v>9.3679279279300004E-2</v>
+      </c>
+      <c r="F3">
+        <v>6.1484684684700003E-2</v>
+      </c>
+      <c r="G3">
+        <v>7.9279279279299994E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0.17705945945900001</v>
+      </c>
+      <c r="D4">
+        <v>0.17652612612599999</v>
+      </c>
+      <c r="E4">
+        <v>0.173859459459</v>
+      </c>
+      <c r="F4">
+        <v>0.14345225225200001</v>
+      </c>
+      <c r="G4">
+        <v>0.162126126126</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0.21385945945900001</v>
+      </c>
+      <c r="D5">
+        <v>0.21012612612600001</v>
+      </c>
+      <c r="E5">
+        <v>0.220259459459</v>
+      </c>
+      <c r="F5">
+        <v>0.195192792793</v>
+      </c>
+      <c r="G5">
+        <v>0.194126126126</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>0.26399279279299998</v>
+      </c>
+      <c r="D6">
+        <v>0.27412612612600001</v>
+      </c>
+      <c r="E6">
+        <v>0.25065945945899998</v>
+      </c>
+      <c r="F6">
+        <v>0.248526126126</v>
+      </c>
+      <c r="G6">
+        <v>0.25759279279300001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>0.31839279279299998</v>
+      </c>
+      <c r="D7">
+        <v>0.30772612612599998</v>
+      </c>
+      <c r="E7">
+        <v>0.30772612612599998</v>
+      </c>
+      <c r="F7">
+        <v>0.311459459459</v>
+      </c>
+      <c r="G7">
+        <v>0.29919279279299998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>0.332792792793</v>
+      </c>
+      <c r="D8">
+        <v>0.34079279279300001</v>
+      </c>
+      <c r="E8">
+        <v>0.34345945945900003</v>
+      </c>
+      <c r="F8">
+        <v>0.32319999999999999</v>
+      </c>
+      <c r="G8">
+        <v>0.33866666666700002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>0.38772612612599999</v>
+      </c>
+      <c r="D9">
+        <v>0.36053333333299997</v>
+      </c>
+      <c r="E9">
+        <v>0.37065945945899997</v>
+      </c>
+      <c r="F9">
+        <v>0.37173333333300002</v>
+      </c>
+      <c r="G9">
+        <v>0.35306666666699998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>0.43839279279299997</v>
+      </c>
+      <c r="D10">
+        <v>0.42133333333299999</v>
+      </c>
+      <c r="E10">
+        <v>0.42239279279300002</v>
+      </c>
+      <c r="F10">
+        <v>0.42559999999999998</v>
+      </c>
+      <c r="G10">
+        <v>0.40853333333300001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>0.47359279279299998</v>
+      </c>
+      <c r="D11">
+        <v>0.45279999999999998</v>
+      </c>
+      <c r="E11">
+        <v>0.47412612612600002</v>
+      </c>
+      <c r="F11">
+        <v>0.4672</v>
+      </c>
+      <c r="G11">
+        <v>0.44586666666699998</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>0.55785945945899995</v>
+      </c>
+      <c r="D12">
+        <v>0.46239999999999998</v>
+      </c>
+      <c r="E12">
+        <v>0.52051891891900004</v>
+      </c>
+      <c r="F12">
+        <v>0.52746666666700004</v>
+      </c>
+      <c r="G12">
+        <v>0.46293333333300002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>0.57706666666700002</v>
+      </c>
+      <c r="D13">
+        <v>0.49440000000000001</v>
+      </c>
+      <c r="E13">
+        <v>0.54879279279299997</v>
+      </c>
+      <c r="F13">
+        <v>0.54879999999999995</v>
+      </c>
+      <c r="G13">
+        <v>0.49546666666700001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>0.58560000000000001</v>
+      </c>
+      <c r="D14">
+        <v>0.53013333333299995</v>
+      </c>
+      <c r="E14">
+        <v>0.58719279279299996</v>
+      </c>
+      <c r="F14">
+        <v>0.60106666666700004</v>
+      </c>
+      <c r="G14">
+        <v>0.51200000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>0.624</v>
+      </c>
+      <c r="D15">
+        <v>0.54933333333300005</v>
+      </c>
+      <c r="E15">
+        <v>0.62292612612599996</v>
+      </c>
+      <c r="F15">
+        <v>0.62026666666700003</v>
+      </c>
+      <c r="G15">
+        <v>0.52159999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>0.64266666666700001</v>
+      </c>
+      <c r="D16">
+        <v>0.57173333333300003</v>
+      </c>
+      <c r="E16">
+        <v>0.64319279279300001</v>
+      </c>
+      <c r="F16">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="G16">
+        <v>0.54079999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.67573333333300001</v>
+      </c>
+      <c r="D17">
+        <v>0.57813333333299999</v>
+      </c>
+      <c r="E17">
+        <v>0.66132612612599995</v>
+      </c>
+      <c r="F17">
+        <v>0.653866666667</v>
+      </c>
+      <c r="G17">
+        <v>0.56746666666699996</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.68906666666700001</v>
+      </c>
+      <c r="D18">
+        <v>0.58506666666700002</v>
+      </c>
+      <c r="E18">
+        <v>0.68692612612600001</v>
+      </c>
+      <c r="F18">
+        <v>0.66826666666699996</v>
+      </c>
+      <c r="G18">
+        <v>0.56320000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.69653333333300005</v>
+      </c>
+      <c r="D19">
+        <v>0.6</v>
+      </c>
+      <c r="E19">
+        <v>0.69385945945899996</v>
+      </c>
+      <c r="F19">
+        <v>0.69385945945899996</v>
+      </c>
+      <c r="G19">
+        <v>0.58560000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.72160000000000002</v>
+      </c>
+      <c r="D20">
+        <v>0.60160000000000002</v>
+      </c>
+      <c r="E20">
+        <v>0.70132612612599998</v>
+      </c>
+      <c r="F20">
+        <v>0.70558558558600004</v>
+      </c>
+      <c r="G20">
+        <v>0.58985945945899998</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.72426666666700001</v>
+      </c>
+      <c r="D21">
+        <v>0.61705945945899998</v>
+      </c>
+      <c r="E21">
+        <v>0.70878558558600002</v>
+      </c>
+      <c r="F21">
+        <v>0.69920000000000004</v>
+      </c>
+      <c r="G21">
+        <v>0.58399279279299998</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.72906666666700004</v>
+      </c>
+      <c r="D22">
+        <v>0.62933333333300001</v>
+      </c>
+      <c r="E22">
+        <v>0.71465225225200002</v>
+      </c>
+      <c r="F22">
+        <v>0.70132612612599998</v>
+      </c>
+      <c r="G22">
+        <v>0.58559279279300003</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.73386666666699996</v>
+      </c>
+      <c r="D23">
+        <v>0.640533333333</v>
+      </c>
+      <c r="E23">
+        <v>0.72318558558599999</v>
+      </c>
+      <c r="F23">
+        <v>0.708792792793</v>
+      </c>
+      <c r="G23">
+        <v>0.59625945945900005</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="D24">
+        <v>0.65385945945900004</v>
+      </c>
+      <c r="E24">
+        <v>0.73278558558600004</v>
+      </c>
+      <c r="F24">
+        <v>0.71519279279299997</v>
+      </c>
+      <c r="G24">
+        <v>0.61119279279299998</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.73599279279300001</v>
+      </c>
+      <c r="D25">
+        <v>0.65705945945900002</v>
+      </c>
+      <c r="E25">
+        <v>0.73598558558600002</v>
+      </c>
+      <c r="F25">
+        <v>0.717326126126</v>
+      </c>
+      <c r="G25">
+        <v>0.60372612612599996</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.73706666666700005</v>
+      </c>
+      <c r="D26">
+        <v>0.65545945945899997</v>
+      </c>
+      <c r="E26">
+        <v>0.739185585586</v>
+      </c>
+      <c r="F26">
+        <v>0.71039279279300005</v>
+      </c>
+      <c r="G26">
+        <v>0.599992792793</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.74025945945899996</v>
+      </c>
+      <c r="D27">
+        <v>0.70025945945900003</v>
+      </c>
+      <c r="E27">
+        <v>0.747718918919</v>
+      </c>
+      <c r="F27">
+        <v>0.71839279279299995</v>
+      </c>
+      <c r="G27">
+        <v>0.65066666666700002</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.74826666666700004</v>
+      </c>
+      <c r="D28">
+        <v>0.70772612612600005</v>
+      </c>
+      <c r="E28">
+        <v>0.74878558558599995</v>
+      </c>
+      <c r="F28">
+        <v>0.71625945945900005</v>
+      </c>
+      <c r="G28">
+        <v>0.6512</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.75946666666700002</v>
+      </c>
+      <c r="D29">
+        <v>0.71305945945899996</v>
+      </c>
+      <c r="E29">
+        <v>0.75625225225199999</v>
+      </c>
+      <c r="F29">
+        <v>0.72105945945899996</v>
+      </c>
+      <c r="G29">
+        <v>0.65919279279300003</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.73866666666699998</v>
+      </c>
+      <c r="D30">
+        <v>0.70079999999999998</v>
+      </c>
+      <c r="E30">
+        <v>0.75678558558599995</v>
+      </c>
+      <c r="F30">
+        <v>0.70505945945899995</v>
+      </c>
+      <c r="G30">
+        <v>0.64213333333300004</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.76053333333299999</v>
+      </c>
+      <c r="D31">
+        <v>0.70613333333299999</v>
+      </c>
+      <c r="E31">
+        <v>0.75625225225199999</v>
+      </c>
+      <c r="F31">
+        <v>0.71572612612599995</v>
+      </c>
+      <c r="G31">
+        <v>0.65385945945900004</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.76265945945900004</v>
+      </c>
+      <c r="D32">
+        <v>0.70772612612600005</v>
+      </c>
+      <c r="E32">
+        <v>0.75518558558600002</v>
+      </c>
+      <c r="F32">
+        <v>0.71412612612600002</v>
+      </c>
+      <c r="G32">
+        <v>0.64745945945899996</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.75146666666700002</v>
+      </c>
+      <c r="D33">
+        <v>0.70879999999999999</v>
+      </c>
+      <c r="E33">
+        <v>0.75625225225199999</v>
+      </c>
+      <c r="F33">
+        <v>0.73011891891900005</v>
+      </c>
+      <c r="G33">
+        <v>0.66239279279300001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.76213333333300004</v>
+      </c>
+      <c r="D34">
+        <v>0.70666666666699995</v>
+      </c>
+      <c r="E34">
+        <v>0.75625225225199999</v>
+      </c>
+      <c r="F34">
+        <v>0.72638558558599997</v>
+      </c>
+      <c r="G34">
+        <v>0.66079279279299996</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.75252612612600001</v>
+      </c>
+      <c r="D35">
+        <v>0.72533333333299999</v>
+      </c>
+      <c r="E35">
+        <v>0.76158558558599998</v>
+      </c>
+      <c r="F35">
+        <v>0.72745225225200005</v>
+      </c>
+      <c r="G35">
+        <v>0.663978378378</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.76106666666699996</v>
+      </c>
+      <c r="D36">
+        <v>0.71786666666700005</v>
+      </c>
+      <c r="E36">
+        <v>0.764252252252</v>
+      </c>
+      <c r="F36">
+        <v>0.72158558558599994</v>
+      </c>
+      <c r="G36">
+        <v>0.65599279279300005</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.76319999999999999</v>
+      </c>
+      <c r="D37">
+        <v>0.73333333333299999</v>
+      </c>
+      <c r="E37">
+        <v>0.76531891891899995</v>
+      </c>
+      <c r="F37">
+        <v>0.717326126126</v>
+      </c>
+      <c r="G37">
+        <v>0.66079279279299996</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.76480000000000004</v>
+      </c>
+      <c r="D38">
+        <v>0.73973333333299995</v>
+      </c>
+      <c r="E38">
+        <v>0.76745225225199998</v>
+      </c>
+      <c r="F38">
+        <v>0.71305945945899996</v>
+      </c>
+      <c r="G38">
+        <v>0.65705945945900002</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>0.75625945945899997</v>
+      </c>
+      <c r="D39">
+        <v>0.73973333333299995</v>
+      </c>
+      <c r="E39">
+        <v>0.76905225225200002</v>
+      </c>
+      <c r="F39">
+        <v>0.70292612612600003</v>
+      </c>
+      <c r="G39">
+        <v>0.66079279279299996</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.76586666666699998</v>
+      </c>
+      <c r="D40">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="E40">
+        <v>0.77118558558600003</v>
+      </c>
+      <c r="F40">
+        <v>0.70612612612600001</v>
+      </c>
+      <c r="G40">
+        <v>0.65224504504500003</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.74825225225199998</v>
+      </c>
+      <c r="D41">
+        <v>0.74560000000000004</v>
+      </c>
+      <c r="E41">
+        <v>0.77065225225199996</v>
+      </c>
+      <c r="F41">
+        <v>0.70505945945899995</v>
+      </c>
+      <c r="G41">
+        <v>0.65865945945899995</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.74398558558600003</v>
+      </c>
+      <c r="D42">
+        <v>0.73493333333300004</v>
+      </c>
+      <c r="E42">
+        <v>0.77278558558599997</v>
+      </c>
+      <c r="F42">
+        <v>0.700792792793</v>
+      </c>
+      <c r="G42">
+        <v>0.64959279279299997</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="C43">
+        <v>0.76745225225199998</v>
+      </c>
+      <c r="D43">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="E43">
+        <v>0.77171891891900002</v>
+      </c>
+      <c r="F43">
+        <v>0.70665945945899999</v>
+      </c>
+      <c r="G43">
+        <v>0.638385585586</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44">
+        <v>0.76211891891899997</v>
+      </c>
+      <c r="D44">
+        <v>0.74613333333300003</v>
+      </c>
+      <c r="E44">
+        <v>0.77118558558600003</v>
+      </c>
+      <c r="F44">
+        <v>0.70399279279299998</v>
+      </c>
+      <c r="G44">
+        <v>0.65117117117099999</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="C45">
+        <v>0.76798558558600005</v>
+      </c>
+      <c r="D45">
+        <v>0.75946666666700002</v>
+      </c>
+      <c r="E45">
+        <v>0.774918918919</v>
+      </c>
+      <c r="F45">
+        <v>0.70239279279300004</v>
+      </c>
+      <c r="G45">
+        <v>0.65171171171200004</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="C46">
+        <v>0.75569729729699997</v>
+      </c>
+      <c r="D46">
+        <v>0.75306666666699995</v>
+      </c>
+      <c r="E46">
+        <v>0.77918558558600004</v>
+      </c>
+      <c r="F46">
+        <v>0.70665945945899999</v>
+      </c>
+      <c r="G46">
+        <v>0.65224504504500003</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="C47">
+        <v>0.758911711712</v>
+      </c>
+      <c r="D47">
+        <v>0.76533333333300002</v>
+      </c>
+      <c r="E47">
+        <v>0.77651891891900005</v>
+      </c>
+      <c r="F47">
+        <v>0.69224504504499995</v>
+      </c>
+      <c r="G47">
+        <v>0.64634954955000001</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B48">
+        <v>46</v>
+      </c>
+      <c r="C48">
+        <v>0.75465945945900004</v>
+      </c>
+      <c r="D48">
+        <v>0.762666666667</v>
+      </c>
+      <c r="E48">
+        <v>0.77758558558599999</v>
+      </c>
+      <c r="F48">
+        <v>0.68745225225200002</v>
+      </c>
+      <c r="G48">
+        <v>0.658111711712</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B49">
+        <v>47</v>
+      </c>
+      <c r="C49">
+        <v>0.75573333333299997</v>
+      </c>
+      <c r="D49">
+        <v>0.76319999999999999</v>
+      </c>
+      <c r="E49">
+        <v>0.77545225225199998</v>
+      </c>
+      <c r="F49">
+        <v>0.68479279279299998</v>
+      </c>
+      <c r="G49">
+        <v>0.63994954955000005</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B50">
+        <v>48</v>
+      </c>
+      <c r="C50">
+        <v>0.75359279279299995</v>
+      </c>
+      <c r="D50">
+        <v>0.76745945945899996</v>
+      </c>
+      <c r="E50">
+        <v>0.77705225225200003</v>
+      </c>
+      <c r="F50">
+        <v>0.66985225225199996</v>
+      </c>
+      <c r="G50">
+        <v>0.65649009009000003</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B51">
+        <v>49</v>
+      </c>
+      <c r="C51">
+        <v>0.73493333333300004</v>
+      </c>
+      <c r="D51">
+        <v>0.76745945945899996</v>
+      </c>
+      <c r="E51">
+        <v>0.77545225225199998</v>
+      </c>
+      <c r="F51">
+        <v>0.67677117117100005</v>
+      </c>
+      <c r="G51">
+        <v>0.654356756757</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B52">
+        <v>50</v>
+      </c>
+      <c r="C52">
+        <v>0.74132612612600002</v>
+      </c>
+      <c r="D52">
+        <v>0.76585945945900002</v>
+      </c>
+      <c r="E52">
+        <v>0.77705225225200003</v>
+      </c>
+      <c r="F52">
+        <v>0.66611171171200001</v>
+      </c>
+      <c r="G52">
+        <v>0.64050450450499996</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B53">
+        <v>51</v>
+      </c>
+      <c r="C53">
+        <v>0.74719279279299999</v>
+      </c>
+      <c r="D53">
+        <v>0.76745945945899996</v>
+      </c>
+      <c r="E53">
+        <v>0.77758558558599999</v>
+      </c>
+      <c r="F53">
+        <v>0.67197837837800001</v>
+      </c>
+      <c r="G53">
+        <v>0.609578378378</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B54">
+        <v>52</v>
+      </c>
+      <c r="C54">
+        <v>0.73333333333299999</v>
+      </c>
+      <c r="D54">
+        <v>0.76052612612600001</v>
+      </c>
+      <c r="E54">
+        <v>0.77758558558599999</v>
+      </c>
+      <c r="F54">
+        <v>0.65810450450500002</v>
+      </c>
+      <c r="G54">
+        <v>0.62289729729700005</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B55">
+        <v>53</v>
+      </c>
+      <c r="C55">
+        <v>0.73706666666700005</v>
+      </c>
+      <c r="D55">
+        <v>0.76746666666700003</v>
+      </c>
+      <c r="E55">
+        <v>0.78025225225200001</v>
+      </c>
+      <c r="F55">
+        <v>0.65277837837800001</v>
+      </c>
+      <c r="G55">
+        <v>0.613297297297</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B56">
+        <v>54</v>
+      </c>
+      <c r="C56">
+        <v>0.73491891891899996</v>
+      </c>
+      <c r="D56">
+        <v>0.76639279279299999</v>
+      </c>
+      <c r="E56">
+        <v>0.78078558558599997</v>
+      </c>
+      <c r="F56">
+        <v>0.64636396396399998</v>
+      </c>
+      <c r="G56">
+        <v>0.61650450450500005</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B57">
+        <v>55</v>
+      </c>
+      <c r="C57">
+        <v>0.741859459459</v>
+      </c>
+      <c r="D57">
+        <v>0.75519999999999998</v>
+      </c>
+      <c r="E57">
+        <v>0.77971891891900003</v>
+      </c>
+      <c r="F57">
+        <v>0.64210450450500001</v>
+      </c>
+      <c r="G57">
+        <v>0.60531171171200004</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B58">
+        <v>56</v>
+      </c>
+      <c r="C58">
+        <v>0.74079279279300003</v>
+      </c>
+      <c r="D58">
+        <v>0.76372612612599999</v>
+      </c>
+      <c r="E58">
+        <v>0.77971891891900003</v>
+      </c>
+      <c r="F58">
+        <v>0.63942342342299996</v>
+      </c>
+      <c r="G58">
+        <v>0.612771171171</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B59">
+        <v>57</v>
+      </c>
+      <c r="C59">
+        <v>0.73491891891899996</v>
+      </c>
+      <c r="D59">
+        <v>0.75945945945899995</v>
+      </c>
+      <c r="E59">
+        <v>0.77971891891900003</v>
+      </c>
+      <c r="F59">
+        <v>0.63303783783800005</v>
+      </c>
+      <c r="G59">
+        <v>0.587704504505</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B60">
+        <v>58</v>
+      </c>
+      <c r="C60">
+        <v>0.72691891891899996</v>
+      </c>
+      <c r="D60">
+        <v>0.761059459459</v>
+      </c>
+      <c r="E60">
+        <v>0.77971891891900003</v>
+      </c>
+      <c r="F60">
+        <v>0.64636396396399998</v>
+      </c>
+      <c r="G60">
+        <v>0.59410450450499996</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B61">
+        <v>59</v>
+      </c>
+      <c r="C61">
+        <v>0.74825945945899996</v>
+      </c>
+      <c r="D61">
+        <v>0.75733333333300001</v>
+      </c>
+      <c r="E61">
+        <v>0.772252252252</v>
+      </c>
+      <c r="F61">
+        <v>0.63036396396399996</v>
+      </c>
+      <c r="G61">
+        <v>0.57489729729700001</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B62">
+        <v>60</v>
+      </c>
+      <c r="C62">
+        <v>0.73493333333300004</v>
+      </c>
+      <c r="D62">
+        <v>0.75945945945899995</v>
+      </c>
+      <c r="E62">
+        <v>0.77278558558599997</v>
+      </c>
+      <c r="F62">
+        <v>0.62129009009000002</v>
+      </c>
+      <c r="G62">
+        <v>0.593571171171</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B63">
+        <v>61</v>
+      </c>
+      <c r="C63">
+        <v>0.73385225225200001</v>
+      </c>
+      <c r="D63">
+        <v>0.752</v>
+      </c>
+      <c r="E63">
+        <v>0.77171891891900002</v>
+      </c>
+      <c r="F63">
+        <v>0.61861621621600005</v>
+      </c>
+      <c r="G63">
+        <v>0.58394954955</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B64">
+        <v>62</v>
+      </c>
+      <c r="C64">
+        <v>0.73226666666700002</v>
+      </c>
+      <c r="D64">
+        <v>0.75625945945899997</v>
+      </c>
+      <c r="E64">
+        <v>0.77065225225199996</v>
+      </c>
+      <c r="F64">
+        <v>0.60635675675699996</v>
+      </c>
+      <c r="G64">
+        <v>0.58771171171199998</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B65">
+        <v>63</v>
+      </c>
+      <c r="C65">
+        <v>0.74293333333300005</v>
+      </c>
+      <c r="D65">
+        <v>0.752</v>
+      </c>
+      <c r="E65">
+        <v>0.774392792793</v>
+      </c>
+      <c r="F65">
+        <v>0.59943783783799998</v>
+      </c>
+      <c r="G65">
+        <v>0.56796396396399995</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B66">
+        <v>64</v>
+      </c>
+      <c r="C66">
+        <v>0.73760000000000003</v>
+      </c>
+      <c r="D66">
+        <v>0.755192792793</v>
+      </c>
+      <c r="E66">
+        <v>0.76799279279300003</v>
+      </c>
+      <c r="F66">
+        <v>0.60209729729700001</v>
+      </c>
+      <c r="G66">
+        <v>0.57491171171199995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0.66666666666700003</v>
+      </c>
+      <c r="D4">
+        <v>0.70666666666699995</v>
+      </c>
+      <c r="E4">
+        <v>0.68</v>
+      </c>
+      <c r="F4">
+        <v>0.506666666667</v>
+      </c>
+      <c r="G4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0.69333333333299996</v>
+      </c>
+      <c r="D5">
+        <v>0.75555555555599996</v>
+      </c>
+      <c r="E5">
+        <v>0.77333333333300003</v>
+      </c>
+      <c r="F5">
+        <v>0.54666666666700003</v>
+      </c>
+      <c r="G5">
+        <v>0.493333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>0.73333333333299999</v>
+      </c>
+      <c r="D6">
+        <v>0.70666666666699995</v>
+      </c>
+      <c r="E6">
+        <v>0.78666666666700003</v>
+      </c>
+      <c r="F6">
+        <v>0.67</v>
+      </c>
+      <c r="G6">
+        <v>0.636666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>0.76</v>
+      </c>
+      <c r="D7">
+        <v>0.77866666666700002</v>
+      </c>
+      <c r="E7">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="F7">
+        <v>0.68533333333299995</v>
+      </c>
+      <c r="G7">
+        <v>0.62666666666699999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>0.75555555555599996</v>
+      </c>
+      <c r="D8">
+        <v>0.72444444444400002</v>
+      </c>
+      <c r="E8">
+        <v>0.84444444444400002</v>
+      </c>
+      <c r="F8">
+        <v>0.72444444444400002</v>
+      </c>
+      <c r="G8">
+        <v>0.67333333333300005</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>0.77333333333300003</v>
+      </c>
+      <c r="D9">
+        <v>0.79619047619000005</v>
+      </c>
+      <c r="E9">
+        <v>0.868571428571</v>
+      </c>
+      <c r="F9">
+        <v>0.750476190476</v>
+      </c>
+      <c r="G9">
+        <v>0.72571428571399998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>0.81666666666700005</v>
+      </c>
+      <c r="D10">
+        <v>0.79333333333300005</v>
+      </c>
+      <c r="E10">
+        <v>0.87166666666699999</v>
+      </c>
+      <c r="F10">
+        <v>0.74666666666699999</v>
+      </c>
+      <c r="G10">
+        <v>0.70833333333299997</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>0.83555555555600003</v>
+      </c>
+      <c r="D11">
+        <v>0.79407407407399999</v>
+      </c>
+      <c r="E11">
+        <v>0.87703703703699998</v>
+      </c>
+      <c r="F11">
+        <v>0.76888888888899998</v>
+      </c>
+      <c r="G11">
+        <v>0.72740740740700005</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="D12">
+        <v>0.81466666666700005</v>
+      </c>
+      <c r="E12">
+        <v>0.85733333333299999</v>
+      </c>
+      <c r="F12">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="G12">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>0.83393939393899996</v>
+      </c>
+      <c r="D13">
+        <v>0.80121212121200003</v>
+      </c>
+      <c r="E13">
+        <v>0.85696969697000003</v>
+      </c>
+      <c r="F13">
+        <v>0.77454545454500001</v>
+      </c>
+      <c r="G13">
+        <v>0.72484848484800002</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>0.80444444444399998</v>
+      </c>
+      <c r="D14">
+        <v>0.79222222222200001</v>
+      </c>
+      <c r="E14">
+        <v>0.85555555555600005</v>
+      </c>
+      <c r="F14">
+        <v>0.76888888888899998</v>
+      </c>
+      <c r="G14">
+        <v>0.70888888888900004</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>0.82048510048500001</v>
+      </c>
+      <c r="D15">
+        <v>0.79998613998599999</v>
+      </c>
+      <c r="E15">
+        <v>0.86049896049899999</v>
+      </c>
+      <c r="F15">
+        <v>0.78864864864899997</v>
+      </c>
+      <c r="G15">
+        <v>0.73945945945900005</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>0.79998712998699995</v>
+      </c>
+      <c r="D16">
+        <v>0.80570141570099996</v>
+      </c>
+      <c r="E16">
+        <v>0.859987129987</v>
+      </c>
+      <c r="F16">
+        <v>0.80189189189200005</v>
+      </c>
+      <c r="G16">
+        <v>0.76568854568900002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.82487687687699995</v>
+      </c>
+      <c r="D17">
+        <v>0.821321321321</v>
+      </c>
+      <c r="E17">
+        <v>0.84976576576600005</v>
+      </c>
+      <c r="F17">
+        <v>0.82486486486499999</v>
+      </c>
+      <c r="G17">
+        <v>0.80793993994000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.81832207207200003</v>
+      </c>
+      <c r="D18">
+        <v>0.78915540540499995</v>
+      </c>
+      <c r="E18">
+        <v>0.83582207207199999</v>
+      </c>
+      <c r="F18">
+        <v>0.81579954955</v>
+      </c>
+      <c r="G18">
+        <v>0.75413288288299996</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.82039215686300004</v>
+      </c>
+      <c r="D19">
+        <v>0.77881293057800005</v>
+      </c>
+      <c r="E19">
+        <v>0.85018547959699997</v>
+      </c>
+      <c r="F19">
+        <v>0.82508744038199999</v>
+      </c>
+      <c r="G19">
+        <v>0.74819289878100004</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.81036036036000003</v>
+      </c>
+      <c r="D20">
+        <v>0.76591591591599995</v>
+      </c>
+      <c r="E20">
+        <v>0.82961961961999997</v>
+      </c>
+      <c r="F20">
+        <v>0.79331331331300003</v>
+      </c>
+      <c r="G20">
+        <v>0.75404404404400005</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.79999051683300004</v>
+      </c>
+      <c r="D21">
+        <v>0.77262209577999996</v>
+      </c>
+      <c r="E21">
+        <v>0.82314841156899998</v>
+      </c>
+      <c r="F21">
+        <v>0.77681365576100003</v>
+      </c>
+      <c r="G21">
+        <v>0.72840208629699998</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.79266666666700003</v>
+      </c>
+      <c r="D22">
+        <v>0.75199099099099997</v>
+      </c>
+      <c r="E22">
+        <v>0.79264864864899998</v>
+      </c>
+      <c r="F22">
+        <v>0.75465765765799997</v>
+      </c>
+      <c r="G22">
+        <v>0.70663063063099996</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.78283998284</v>
+      </c>
+      <c r="D23">
+        <v>0.76761904761900002</v>
+      </c>
+      <c r="E23">
+        <v>0.798721578722</v>
+      </c>
+      <c r="F23">
+        <v>0.75618189618200005</v>
+      </c>
+      <c r="G23">
+        <v>0.69839553839599999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.77454545454500001</v>
+      </c>
+      <c r="D24">
+        <v>0.76484848484800005</v>
+      </c>
+      <c r="E24">
+        <v>0.79089271089299995</v>
+      </c>
+      <c r="F24">
+        <v>0.74726453726499997</v>
+      </c>
+      <c r="G24">
+        <v>0.70059787059800005</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.775644339992</v>
+      </c>
+      <c r="D25">
+        <v>0.757101449275</v>
+      </c>
+      <c r="E25">
+        <v>0.79766549157900002</v>
+      </c>
+      <c r="F25">
+        <v>0.76231100665899998</v>
+      </c>
+      <c r="G25">
+        <v>0.68347042694899995</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.79277777777799996</v>
+      </c>
+      <c r="D26">
+        <v>0.75111111111100004</v>
+      </c>
+      <c r="E26">
+        <v>0.79831831831800004</v>
+      </c>
+      <c r="F26">
+        <v>0.74888138138100002</v>
+      </c>
+      <c r="G26">
+        <v>0.69277027027000004</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.76906666666699997</v>
+      </c>
+      <c r="D27">
+        <v>0.70666666666699995</v>
+      </c>
+      <c r="E27">
+        <v>0.75625225225199999</v>
+      </c>
+      <c r="F27">
+        <v>0.72638558558599997</v>
+      </c>
+      <c r="G27">
+        <v>0.66079279279299996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>